--- a/内部設計書/内部設計書_2_1_試験選択.xlsx
+++ b/内部設計書/内部設計書_2_1_試験選択.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BA063-EC19-4F59-9C49-9D1AC014F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -320,19 +314,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザIDを引数にしてデータベースからユーザ名検索する。</t>
-    <rPh sb="6" eb="8">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>検索したユーザ名をreturnする。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -400,15 +381,28 @@
     <t>LoginForm.ユーザID</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ユーザIDを引数にしてデータベースからユーザ名を検索する。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1092,147 +1086,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1294,19 +1151,64 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,26 +1220,118 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1675,128 +1669,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="6"/>
-    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="6"/>
+    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50" t="s">
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="51" t="s">
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="106"/>
+      <c r="BK1" s="106"/>
+      <c r="BL1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="52" t="s">
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="107"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="53" t="s">
+      <c r="BQ1" s="108"/>
+      <c r="BR1" s="108"/>
+      <c r="BS1" s="108"/>
+      <c r="BT1" s="108"/>
+      <c r="BU1" s="108"/>
+      <c r="BV1" s="108"/>
+      <c r="BW1" s="108"/>
+      <c r="BX1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="53"/>
-      <c r="BZ1" s="53"/>
-      <c r="CA1" s="53"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
+      <c r="BY1" s="109"/>
+      <c r="BZ1" s="109"/>
+      <c r="CA1" s="109"/>
+      <c r="CB1" s="96"/>
+      <c r="CC1" s="96"/>
+      <c r="CD1" s="96"/>
+      <c r="CE1" s="96"/>
+      <c r="CF1" s="96"/>
+      <c r="CG1" s="96"/>
+      <c r="CH1" s="96"/>
+      <c r="CI1" s="96"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2736,106 +2730,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="43" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="44" t="s">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="99"/>
+      <c r="BB2" s="99"/>
+      <c r="BC2" s="99"/>
+      <c r="BD2" s="99"/>
+      <c r="BE2" s="99"/>
+      <c r="BF2" s="99"/>
+      <c r="BG2" s="99"/>
+      <c r="BH2" s="99"/>
+      <c r="BI2" s="99"/>
+      <c r="BJ2" s="99"/>
+      <c r="BK2" s="99"/>
+      <c r="BL2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="45">
+      <c r="BM2" s="100"/>
+      <c r="BN2" s="100"/>
+      <c r="BO2" s="100"/>
+      <c r="BP2" s="101">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="45"/>
-      <c r="BW2" s="45"/>
-      <c r="BX2" s="46" t="s">
+      <c r="BQ2" s="101"/>
+      <c r="BR2" s="101"/>
+      <c r="BS2" s="101"/>
+      <c r="BT2" s="101"/>
+      <c r="BU2" s="101"/>
+      <c r="BV2" s="101"/>
+      <c r="BW2" s="101"/>
+      <c r="BX2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="47"/>
-      <c r="CC2" s="47"/>
-      <c r="CD2" s="47"/>
-      <c r="CE2" s="47"/>
-      <c r="CF2" s="47"/>
-      <c r="CG2" s="47"/>
-      <c r="CH2" s="47"/>
-      <c r="CI2" s="47"/>
+      <c r="BY2" s="102"/>
+      <c r="BZ2" s="102"/>
+      <c r="CA2" s="102"/>
+      <c r="CB2" s="103"/>
+      <c r="CC2" s="103"/>
+      <c r="CD2" s="103"/>
+      <c r="CE2" s="103"/>
+      <c r="CF2" s="103"/>
+      <c r="CG2" s="103"/>
+      <c r="CH2" s="103"/>
+      <c r="CI2" s="103"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3775,7 +3769,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -3863,102 +3857,102 @@
       <c r="CH3" s="20"/>
       <c r="CI3" s="20"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="57" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="39" t="s">
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="92"/>
+      <c r="BN4" s="92"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="92"/>
+      <c r="BQ4" s="92"/>
+      <c r="BR4" s="92"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="92"/>
+      <c r="BU4" s="92"/>
+      <c r="BV4" s="92"/>
+      <c r="BW4" s="92"/>
+      <c r="BX4" s="92"/>
+      <c r="BY4" s="92"/>
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="92"/>
+      <c r="CB4" s="92"/>
+      <c r="CC4" s="92"/>
+      <c r="CD4" s="92"/>
+      <c r="CE4" s="92"/>
+      <c r="CF4" s="92"/>
+      <c r="CG4" s="92"/>
+      <c r="CH4" s="92"/>
+      <c r="CI4" s="92"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4898,102 +4892,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="30">
+      <c r="B5" s="87">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="58" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="59" t="s">
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
+      <c r="BI5" s="95"/>
+      <c r="BJ5" s="95"/>
+      <c r="BK5" s="95"/>
+      <c r="BL5" s="95"/>
+      <c r="BM5" s="95"/>
+      <c r="BN5" s="95"/>
+      <c r="BO5" s="95"/>
+      <c r="BP5" s="95"/>
+      <c r="BQ5" s="95"/>
+      <c r="BR5" s="95"/>
+      <c r="BS5" s="95"/>
+      <c r="BT5" s="95"/>
+      <c r="BU5" s="95"/>
+      <c r="BV5" s="95"/>
+      <c r="BW5" s="95"/>
+      <c r="BX5" s="95"/>
+      <c r="BY5" s="95"/>
+      <c r="BZ5" s="95"/>
+      <c r="CA5" s="95"/>
+      <c r="CB5" s="95"/>
+      <c r="CC5" s="95"/>
+      <c r="CD5" s="95"/>
+      <c r="CE5" s="95"/>
+      <c r="CF5" s="95"/>
+      <c r="CG5" s="95"/>
+      <c r="CH5" s="95"/>
+      <c r="CI5" s="95"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5933,7 +5927,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="4.9000000000000004" customHeight="1" thickBot="1">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6021,202 +6015,202 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="36" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="36" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="39" t="s">
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="39"/>
-      <c r="BE7" s="39"/>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="39"/>
-      <c r="BZ7" s="39"/>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="39"/>
-      <c r="CE7" s="39"/>
-      <c r="CF7" s="39"/>
-      <c r="CG7" s="39"/>
-      <c r="CH7" s="39"/>
-      <c r="CI7" s="39"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="92"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="92"/>
+      <c r="BL7" s="92"/>
+      <c r="BM7" s="92"/>
+      <c r="BN7" s="92"/>
+      <c r="BO7" s="92"/>
+      <c r="BP7" s="92"/>
+      <c r="BQ7" s="92"/>
+      <c r="BR7" s="92"/>
+      <c r="BS7" s="92"/>
+      <c r="BT7" s="92"/>
+      <c r="BU7" s="92"/>
+      <c r="BV7" s="92"/>
+      <c r="BW7" s="92"/>
+      <c r="BX7" s="92"/>
+      <c r="BY7" s="92"/>
+      <c r="BZ7" s="92"/>
+      <c r="CA7" s="92"/>
+      <c r="CB7" s="92"/>
+      <c r="CC7" s="92"/>
+      <c r="CD7" s="92"/>
+      <c r="CE7" s="92"/>
+      <c r="CF7" s="92"/>
+      <c r="CG7" s="92"/>
+      <c r="CH7" s="92"/>
+      <c r="CI7" s="92"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="30">
+      <c r="B8" s="87">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="54" t="s">
-        <v>45</v>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="59" t="s">
+        <v>44</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="54" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="71" t="s">
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="33" t="s">
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="33"/>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="33"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="33"/>
-      <c r="BX8" s="33"/>
-      <c r="BY8" s="33"/>
-      <c r="BZ8" s="33"/>
-      <c r="CA8" s="33"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="33"/>
-      <c r="CD8" s="33"/>
-      <c r="CE8" s="33"/>
-      <c r="CF8" s="33"/>
-      <c r="CG8" s="33"/>
-      <c r="CH8" s="33"/>
-      <c r="CI8" s="33"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="89"/>
+      <c r="BK8" s="89"/>
+      <c r="BL8" s="89"/>
+      <c r="BM8" s="89"/>
+      <c r="BN8" s="89"/>
+      <c r="BO8" s="89"/>
+      <c r="BP8" s="89"/>
+      <c r="BQ8" s="89"/>
+      <c r="BR8" s="89"/>
+      <c r="BS8" s="89"/>
+      <c r="BT8" s="89"/>
+      <c r="BU8" s="89"/>
+      <c r="BV8" s="89"/>
+      <c r="BW8" s="89"/>
+      <c r="BX8" s="89"/>
+      <c r="BY8" s="89"/>
+      <c r="BZ8" s="89"/>
+      <c r="CA8" s="89"/>
+      <c r="CB8" s="89"/>
+      <c r="CC8" s="89"/>
+      <c r="CD8" s="89"/>
+      <c r="CE8" s="89"/>
+      <c r="CF8" s="89"/>
+      <c r="CG8" s="89"/>
+      <c r="CH8" s="89"/>
+      <c r="CI8" s="89"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7155,558 +7149,558 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="75"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="80"/>
-      <c r="AO9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
-      <c r="AS9" s="80"/>
-      <c r="AT9" s="80"/>
-      <c r="AU9" s="80"/>
-      <c r="AV9" s="80"/>
-      <c r="AW9" s="80"/>
-      <c r="AX9" s="80"/>
-      <c r="AY9" s="80"/>
-      <c r="AZ9" s="80"/>
-      <c r="BA9" s="80"/>
-      <c r="BB9" s="80"/>
-      <c r="BC9" s="80"/>
-      <c r="BD9" s="80"/>
-      <c r="BE9" s="80"/>
-      <c r="BF9" s="80"/>
-      <c r="BG9" s="80"/>
-      <c r="BH9" s="80"/>
-      <c r="BI9" s="80"/>
-      <c r="BJ9" s="80"/>
-      <c r="BK9" s="80"/>
-      <c r="BL9" s="80"/>
-      <c r="BM9" s="80"/>
-      <c r="BN9" s="80"/>
-      <c r="BO9" s="80"/>
-      <c r="BP9" s="80"/>
-      <c r="BQ9" s="80"/>
-      <c r="BR9" s="80"/>
-      <c r="BS9" s="80"/>
-      <c r="BT9" s="80"/>
-      <c r="BU9" s="80"/>
-      <c r="BV9" s="80"/>
-      <c r="BW9" s="80"/>
-      <c r="BX9" s="80"/>
-      <c r="BY9" s="80"/>
-      <c r="BZ9" s="80"/>
-      <c r="CA9" s="80"/>
-      <c r="CB9" s="80"/>
-      <c r="CC9" s="80"/>
-      <c r="CD9" s="80"/>
-      <c r="CE9" s="80"/>
-      <c r="CF9" s="80"/>
-      <c r="CG9" s="80"/>
-      <c r="CH9" s="80"/>
-      <c r="CI9" s="81"/>
-      <c r="AMK9" s="76"/>
+    <row r="9" spans="1:1025" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29"/>
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29"/>
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29"/>
+      <c r="CI9" s="30"/>
+      <c r="AMK9" s="25"/>
     </row>
-    <row r="10" spans="1:1025" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="75"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="84" t="s">
+    <row r="10" spans="1:1025" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="I10" s="85" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="I10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="34"/>
+      <c r="BL10" s="34"/>
+      <c r="BM10" s="34"/>
+      <c r="BN10" s="34"/>
+      <c r="BO10" s="34"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="34"/>
+      <c r="BR10" s="34"/>
+      <c r="BS10" s="34"/>
+      <c r="BT10" s="34"/>
+      <c r="BU10" s="34"/>
+      <c r="BV10" s="34"/>
+      <c r="BW10" s="34"/>
+      <c r="BX10" s="34"/>
+      <c r="BY10" s="34"/>
+      <c r="BZ10" s="34"/>
+      <c r="CA10" s="34"/>
+      <c r="CB10" s="34"/>
+      <c r="CC10" s="34"/>
+      <c r="CD10" s="34"/>
+      <c r="CE10" s="34"/>
+      <c r="CF10" s="45"/>
+      <c r="CG10" s="45"/>
+      <c r="CH10" s="45"/>
+      <c r="CI10" s="36"/>
+      <c r="AMK10" s="25"/>
+    </row>
+    <row r="11" spans="1:1025" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="34"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="34"/>
+      <c r="CE11" s="34"/>
+      <c r="CF11" s="45"/>
+      <c r="CG11" s="45"/>
+      <c r="CH11" s="45"/>
+      <c r="CI11" s="36"/>
+      <c r="AMK11" s="25"/>
+    </row>
+    <row r="12" spans="1:1025" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="34"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="34"/>
+      <c r="BR12" s="34"/>
+      <c r="BS12" s="34"/>
+      <c r="BT12" s="34"/>
+      <c r="BU12" s="34"/>
+      <c r="BV12" s="34"/>
+      <c r="BW12" s="34"/>
+      <c r="BX12" s="34"/>
+      <c r="BY12" s="34"/>
+      <c r="BZ12" s="34"/>
+      <c r="CA12" s="34"/>
+      <c r="CB12" s="34"/>
+      <c r="CC12" s="34"/>
+      <c r="CD12" s="34"/>
+      <c r="CE12" s="34"/>
+      <c r="CF12" s="45"/>
+      <c r="CG12" s="45"/>
+      <c r="CH12" s="45"/>
+      <c r="CI12" s="36"/>
+      <c r="AMK12" s="25"/>
+    </row>
+    <row r="13" spans="1:1025" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="53">
+        <v>1</v>
+      </c>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="85"/>
-      <c r="BA10" s="85"/>
-      <c r="BB10" s="85"/>
-      <c r="BC10" s="85"/>
-      <c r="BD10" s="85"/>
-      <c r="BE10" s="85"/>
-      <c r="BF10" s="85"/>
-      <c r="BG10" s="85"/>
-      <c r="BH10" s="85"/>
-      <c r="BI10" s="85"/>
-      <c r="BJ10" s="85"/>
-      <c r="BK10" s="85"/>
-      <c r="BL10" s="85"/>
-      <c r="BM10" s="85"/>
-      <c r="BN10" s="85"/>
-      <c r="BO10" s="85"/>
-      <c r="BP10" s="85"/>
-      <c r="BQ10" s="85"/>
-      <c r="BR10" s="85"/>
-      <c r="BS10" s="85"/>
-      <c r="BT10" s="85"/>
-      <c r="BU10" s="85"/>
-      <c r="BV10" s="85"/>
-      <c r="BW10" s="85"/>
-      <c r="BX10" s="85"/>
-      <c r="BY10" s="85"/>
-      <c r="BZ10" s="85"/>
-      <c r="CA10" s="85"/>
-      <c r="CB10" s="85"/>
-      <c r="CC10" s="85"/>
-      <c r="CD10" s="85"/>
-      <c r="CE10" s="85"/>
-      <c r="CF10" s="96"/>
-      <c r="CG10" s="96"/>
-      <c r="CH10" s="96"/>
-      <c r="CI10" s="87"/>
-      <c r="AMK10" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="76"/>
+      <c r="AZ13" s="76"/>
+      <c r="BA13" s="76"/>
+      <c r="BB13" s="76"/>
+      <c r="BC13" s="76"/>
+      <c r="BD13" s="76"/>
+      <c r="BE13" s="76"/>
+      <c r="BF13" s="76"/>
+      <c r="BG13" s="76"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="76"/>
+      <c r="BK13" s="77"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="34"/>
+      <c r="BN13" s="34"/>
+      <c r="BO13" s="34"/>
+      <c r="BP13" s="34"/>
+      <c r="BQ13" s="34"/>
+      <c r="BR13" s="34"/>
+      <c r="BS13" s="34"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="34"/>
+      <c r="BV13" s="34"/>
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CA13" s="34"/>
+      <c r="CB13" s="34"/>
+      <c r="CC13" s="34"/>
+      <c r="CD13" s="34"/>
+      <c r="CE13" s="34"/>
+      <c r="CF13" s="45"/>
+      <c r="CG13" s="45"/>
+      <c r="CH13" s="45"/>
+      <c r="CI13" s="36"/>
+      <c r="AMK13" s="25"/>
     </row>
-    <row r="11" spans="1:1025" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="85"/>
-      <c r="BA11" s="85"/>
-      <c r="BB11" s="85"/>
-      <c r="BC11" s="85"/>
-      <c r="BD11" s="85"/>
-      <c r="BE11" s="85"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="85"/>
-      <c r="BH11" s="85"/>
-      <c r="BI11" s="85"/>
-      <c r="BJ11" s="85"/>
-      <c r="BK11" s="85"/>
-      <c r="BL11" s="85"/>
-      <c r="BM11" s="85"/>
-      <c r="BN11" s="85"/>
-      <c r="BO11" s="85"/>
-      <c r="BP11" s="85"/>
-      <c r="BQ11" s="85"/>
-      <c r="BR11" s="85"/>
-      <c r="BS11" s="85"/>
-      <c r="BT11" s="85"/>
-      <c r="BU11" s="85"/>
-      <c r="BV11" s="85"/>
-      <c r="BW11" s="85"/>
-      <c r="BX11" s="85"/>
-      <c r="BY11" s="85"/>
-      <c r="BZ11" s="85"/>
-      <c r="CA11" s="85"/>
-      <c r="CB11" s="85"/>
-      <c r="CC11" s="85"/>
-      <c r="CD11" s="85"/>
-      <c r="CE11" s="85"/>
-      <c r="CF11" s="96"/>
-      <c r="CG11" s="96"/>
-      <c r="CH11" s="96"/>
-      <c r="CI11" s="87"/>
-      <c r="AMK11" s="76"/>
-    </row>
-    <row r="12" spans="1:1025" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="27"/>
-      <c r="BE12" s="27"/>
-      <c r="BF12" s="27"/>
-      <c r="BG12" s="27"/>
-      <c r="BH12" s="27"/>
-      <c r="BI12" s="27"/>
-      <c r="BJ12" s="27"/>
-      <c r="BK12" s="28"/>
-      <c r="BL12" s="85"/>
-      <c r="BM12" s="85"/>
-      <c r="BN12" s="85"/>
-      <c r="BO12" s="85"/>
-      <c r="BP12" s="85"/>
-      <c r="BQ12" s="85"/>
-      <c r="BR12" s="85"/>
-      <c r="BS12" s="85"/>
-      <c r="BT12" s="85"/>
-      <c r="BU12" s="85"/>
-      <c r="BV12" s="85"/>
-      <c r="BW12" s="85"/>
-      <c r="BX12" s="85"/>
-      <c r="BY12" s="85"/>
-      <c r="BZ12" s="85"/>
-      <c r="CA12" s="85"/>
-      <c r="CB12" s="85"/>
-      <c r="CC12" s="85"/>
-      <c r="CD12" s="85"/>
-      <c r="CE12" s="85"/>
-      <c r="CF12" s="96"/>
-      <c r="CG12" s="96"/>
-      <c r="CH12" s="96"/>
-      <c r="CI12" s="87"/>
-      <c r="AMK12" s="76"/>
-    </row>
-    <row r="13" spans="1:1025" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="75"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="29">
-        <v>1</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="28"/>
-      <c r="BL13" s="85"/>
-      <c r="BM13" s="85"/>
-      <c r="BN13" s="85"/>
-      <c r="BO13" s="85"/>
-      <c r="BP13" s="85"/>
-      <c r="BQ13" s="85"/>
-      <c r="BR13" s="85"/>
-      <c r="BS13" s="85"/>
-      <c r="BT13" s="85"/>
-      <c r="BU13" s="85"/>
-      <c r="BV13" s="85"/>
-      <c r="BW13" s="85"/>
-      <c r="BX13" s="85"/>
-      <c r="BY13" s="85"/>
-      <c r="BZ13" s="85"/>
-      <c r="CA13" s="85"/>
-      <c r="CB13" s="85"/>
-      <c r="CC13" s="85"/>
-      <c r="CD13" s="85"/>
-      <c r="CE13" s="85"/>
-      <c r="CF13" s="96"/>
-      <c r="CG13" s="96"/>
-      <c r="CH13" s="96"/>
-      <c r="CI13" s="87"/>
-      <c r="AMK13" s="76"/>
-    </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1025" ht="18" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="70"/>
-      <c r="AO14" s="70"/>
-      <c r="AP14" s="70"/>
-      <c r="AQ14" s="70"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="70"/>
-      <c r="BD14" s="70"/>
-      <c r="BE14" s="70"/>
-      <c r="BF14" s="70"/>
-      <c r="BG14" s="70"/>
-      <c r="BH14" s="70"/>
-      <c r="BI14" s="70"/>
-      <c r="BJ14" s="70"/>
-      <c r="BK14" s="70"/>
-      <c r="BL14" s="85"/>
-      <c r="BM14" s="85"/>
-      <c r="BN14" s="85"/>
-      <c r="BO14" s="85"/>
-      <c r="BP14" s="85"/>
-      <c r="BQ14" s="85"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="85"/>
-      <c r="BT14" s="85"/>
-      <c r="BU14" s="85"/>
-      <c r="BV14" s="85"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="85"/>
-      <c r="BY14" s="85"/>
-      <c r="BZ14" s="85"/>
-      <c r="CA14" s="85"/>
-      <c r="CB14" s="85"/>
-      <c r="CC14" s="85"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="96"/>
-      <c r="CG14" s="96"/>
-      <c r="CH14" s="96"/>
-      <c r="CI14" s="87"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="22"/>
+      <c r="BL14" s="34"/>
+      <c r="BM14" s="34"/>
+      <c r="BN14" s="34"/>
+      <c r="BO14" s="34"/>
+      <c r="BP14" s="34"/>
+      <c r="BQ14" s="34"/>
+      <c r="BR14" s="34"/>
+      <c r="BS14" s="34"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="34"/>
+      <c r="BV14" s="34"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CA14" s="34"/>
+      <c r="CB14" s="34"/>
+      <c r="CC14" s="34"/>
+      <c r="CD14" s="34"/>
+      <c r="CE14" s="34"/>
+      <c r="CF14" s="45"/>
+      <c r="CG14" s="45"/>
+      <c r="CH14" s="45"/>
+      <c r="CI14" s="36"/>
       <c r="CJ14" s="1"/>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
@@ -8645,98 +8639,98 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1025" ht="18" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="84" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="85" t="s">
-        <v>44</v>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="34" t="s">
+        <v>43</v>
       </c>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="85"/>
-      <c r="AZ15" s="85"/>
-      <c r="BA15" s="85"/>
-      <c r="BB15" s="85"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="85"/>
-      <c r="BE15" s="85"/>
-      <c r="BF15" s="85"/>
-      <c r="BG15" s="85"/>
-      <c r="BH15" s="85"/>
-      <c r="BI15" s="85"/>
-      <c r="BJ15" s="85"/>
-      <c r="BK15" s="85"/>
-      <c r="BL15" s="85"/>
-      <c r="BM15" s="85"/>
-      <c r="BN15" s="85"/>
-      <c r="BO15" s="85"/>
-      <c r="BP15" s="85"/>
-      <c r="BQ15" s="85"/>
-      <c r="BR15" s="85"/>
-      <c r="BS15" s="85"/>
-      <c r="BT15" s="85"/>
-      <c r="BU15" s="85"/>
-      <c r="BV15" s="85"/>
-      <c r="BW15" s="85"/>
-      <c r="BX15" s="85"/>
-      <c r="BY15" s="85"/>
-      <c r="BZ15" s="85"/>
-      <c r="CA15" s="85"/>
-      <c r="CB15" s="85"/>
-      <c r="CC15" s="85"/>
-      <c r="CD15" s="85"/>
-      <c r="CE15" s="85"/>
-      <c r="CF15" s="96"/>
-      <c r="CG15" s="96"/>
-      <c r="CH15" s="96"/>
-      <c r="CI15" s="87"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="34"/>
+      <c r="BC15" s="34"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="34"/>
+      <c r="BL15" s="34"/>
+      <c r="BM15" s="34"/>
+      <c r="BN15" s="34"/>
+      <c r="BO15" s="34"/>
+      <c r="BP15" s="34"/>
+      <c r="BQ15" s="34"/>
+      <c r="BR15" s="34"/>
+      <c r="BS15" s="34"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="34"/>
+      <c r="BV15" s="34"/>
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CA15" s="34"/>
+      <c r="CB15" s="34"/>
+      <c r="CC15" s="34"/>
+      <c r="CD15" s="34"/>
+      <c r="CE15" s="34"/>
+      <c r="CF15" s="45"/>
+      <c r="CG15" s="45"/>
+      <c r="CH15" s="45"/>
+      <c r="CI15" s="36"/>
       <c r="CJ15" s="1"/>
       <c r="CK15" s="1"/>
       <c r="CL15" s="1"/>
@@ -9675,94 +9669,94 @@
       <c r="AMI15" s="1"/>
       <c r="AMJ15" s="1"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1025" ht="18" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="85"/>
-      <c r="AZ16" s="85"/>
-      <c r="BA16" s="85"/>
-      <c r="BB16" s="85"/>
-      <c r="BC16" s="85"/>
-      <c r="BD16" s="85"/>
-      <c r="BE16" s="85"/>
-      <c r="BF16" s="85"/>
-      <c r="BG16" s="85"/>
-      <c r="BH16" s="85"/>
-      <c r="BI16" s="85"/>
-      <c r="BJ16" s="85"/>
-      <c r="BK16" s="85"/>
-      <c r="BL16" s="85"/>
-      <c r="BM16" s="85"/>
-      <c r="BN16" s="85"/>
-      <c r="BO16" s="85"/>
-      <c r="BP16" s="85"/>
-      <c r="BQ16" s="85"/>
-      <c r="BR16" s="85"/>
-      <c r="BS16" s="85"/>
-      <c r="BT16" s="85"/>
-      <c r="BU16" s="85"/>
-      <c r="BV16" s="85"/>
-      <c r="BW16" s="85"/>
-      <c r="BX16" s="85"/>
-      <c r="BY16" s="85"/>
-      <c r="BZ16" s="85"/>
-      <c r="CA16" s="85"/>
-      <c r="CB16" s="85"/>
-      <c r="CC16" s="85"/>
-      <c r="CD16" s="85"/>
-      <c r="CE16" s="85"/>
-      <c r="CF16" s="96"/>
-      <c r="CG16" s="96"/>
-      <c r="CH16" s="96"/>
-      <c r="CI16" s="87"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="34"/>
+      <c r="BD16" s="34"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="34"/>
+      <c r="BM16" s="34"/>
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="34"/>
+      <c r="BR16" s="34"/>
+      <c r="BS16" s="34"/>
+      <c r="BT16" s="34"/>
+      <c r="BU16" s="34"/>
+      <c r="BV16" s="34"/>
+      <c r="BW16" s="34"/>
+      <c r="BX16" s="34"/>
+      <c r="BY16" s="34"/>
+      <c r="BZ16" s="34"/>
+      <c r="CA16" s="34"/>
+      <c r="CB16" s="34"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="34"/>
+      <c r="CE16" s="34"/>
+      <c r="CF16" s="45"/>
+      <c r="CG16" s="45"/>
+      <c r="CH16" s="45"/>
+      <c r="CI16" s="36"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -10701,98 +10695,98 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1024" ht="18" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="84" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="85" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="85"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="85"/>
-      <c r="BA17" s="85"/>
-      <c r="BB17" s="85"/>
-      <c r="BC17" s="85"/>
-      <c r="BD17" s="85"/>
-      <c r="BE17" s="85"/>
-      <c r="BF17" s="85"/>
-      <c r="BG17" s="85"/>
-      <c r="BH17" s="85"/>
-      <c r="BI17" s="85"/>
-      <c r="BJ17" s="85"/>
-      <c r="BK17" s="85"/>
-      <c r="BL17" s="85"/>
-      <c r="BM17" s="85"/>
-      <c r="BN17" s="85"/>
-      <c r="BO17" s="85"/>
-      <c r="BP17" s="85"/>
-      <c r="BQ17" s="85"/>
-      <c r="BR17" s="85"/>
-      <c r="BS17" s="85"/>
-      <c r="BT17" s="85"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="85"/>
-      <c r="BW17" s="85"/>
-      <c r="BX17" s="85"/>
-      <c r="BY17" s="85"/>
-      <c r="BZ17" s="85"/>
-      <c r="CA17" s="85"/>
-      <c r="CB17" s="85"/>
-      <c r="CC17" s="85"/>
-      <c r="CD17" s="85"/>
-      <c r="CE17" s="85"/>
-      <c r="CF17" s="96"/>
-      <c r="CG17" s="96"/>
-      <c r="CH17" s="96"/>
-      <c r="CI17" s="87"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="34"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
+      <c r="BJ17" s="34"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="34"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="34"/>
+      <c r="BS17" s="34"/>
+      <c r="BT17" s="34"/>
+      <c r="BU17" s="34"/>
+      <c r="BV17" s="34"/>
+      <c r="BW17" s="34"/>
+      <c r="BX17" s="34"/>
+      <c r="BY17" s="34"/>
+      <c r="BZ17" s="34"/>
+      <c r="CA17" s="34"/>
+      <c r="CB17" s="34"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="34"/>
+      <c r="CE17" s="34"/>
+      <c r="CF17" s="45"/>
+      <c r="CG17" s="45"/>
+      <c r="CH17" s="45"/>
+      <c r="CI17" s="36"/>
       <c r="CJ17" s="1"/>
       <c r="CK17" s="1"/>
       <c r="CL17" s="1"/>
@@ -11731,94 +11725,94 @@
       <c r="AMI17" s="1"/>
       <c r="AMJ17" s="1"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89"/>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="89"/>
-      <c r="BN18" s="89"/>
-      <c r="BO18" s="89"/>
-      <c r="BP18" s="89"/>
-      <c r="BQ18" s="89"/>
-      <c r="BR18" s="89"/>
-      <c r="BS18" s="89"/>
-      <c r="BT18" s="89"/>
-      <c r="BU18" s="89"/>
-      <c r="BV18" s="89"/>
-      <c r="BW18" s="89"/>
-      <c r="BX18" s="89"/>
-      <c r="BY18" s="89"/>
-      <c r="BZ18" s="89"/>
-      <c r="CA18" s="89"/>
-      <c r="CB18" s="89"/>
-      <c r="CC18" s="89"/>
-      <c r="CD18" s="89"/>
-      <c r="CE18" s="89"/>
-      <c r="CF18" s="91"/>
-      <c r="CG18" s="91"/>
-      <c r="CH18" s="91"/>
-      <c r="CI18" s="92"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="38"/>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="38"/>
+      <c r="BW18" s="38"/>
+      <c r="BX18" s="38"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="38"/>
+      <c r="CB18" s="38"/>
+      <c r="CC18" s="38"/>
+      <c r="CD18" s="38"/>
+      <c r="CE18" s="38"/>
+      <c r="CF18" s="40"/>
+      <c r="CG18" s="40"/>
+      <c r="CH18" s="40"/>
+      <c r="CI18" s="41"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
@@ -12757,94 +12751,94 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="74"/>
-      <c r="AV19" s="74"/>
-      <c r="AW19" s="74"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="74"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="74"/>
-      <c r="BB19" s="74"/>
-      <c r="BC19" s="74"/>
-      <c r="BD19" s="74"/>
-      <c r="BE19" s="74"/>
-      <c r="BF19" s="74"/>
-      <c r="BG19" s="74"/>
-      <c r="BH19" s="74"/>
-      <c r="BI19" s="74"/>
-      <c r="BJ19" s="74"/>
-      <c r="BK19" s="74"/>
-      <c r="BL19" s="74"/>
-      <c r="BM19" s="74"/>
-      <c r="BN19" s="74"/>
-      <c r="BO19" s="74"/>
-      <c r="BP19" s="74"/>
-      <c r="BQ19" s="74"/>
-      <c r="BR19" s="74"/>
-      <c r="BS19" s="74"/>
-      <c r="BT19" s="74"/>
-      <c r="BU19" s="74"/>
-      <c r="BV19" s="74"/>
-      <c r="BW19" s="74"/>
-      <c r="BX19" s="74"/>
-      <c r="BY19" s="74"/>
-      <c r="BZ19" s="74"/>
-      <c r="CA19" s="74"/>
-      <c r="CB19" s="74"/>
-      <c r="CC19" s="74"/>
-      <c r="CD19" s="74"/>
-      <c r="CE19" s="74"/>
-      <c r="CF19" s="74"/>
-      <c r="CG19" s="74"/>
-      <c r="CH19" s="74"/>
-      <c r="CI19" s="74"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="23"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="23"/>
+      <c r="BP19" s="23"/>
+      <c r="BQ19" s="23"/>
+      <c r="BR19" s="23"/>
+      <c r="BS19" s="23"/>
+      <c r="BT19" s="23"/>
+      <c r="BU19" s="23"/>
+      <c r="BV19" s="23"/>
+      <c r="BW19" s="23"/>
+      <c r="BX19" s="23"/>
+      <c r="BY19" s="23"/>
+      <c r="BZ19" s="23"/>
+      <c r="CA19" s="23"/>
+      <c r="CB19" s="23"/>
+      <c r="CC19" s="23"/>
+      <c r="CD19" s="23"/>
+      <c r="CE19" s="23"/>
+      <c r="CF19" s="23"/>
+      <c r="CG19" s="23"/>
+      <c r="CH19" s="23"/>
+      <c r="CI19" s="23"/>
       <c r="CJ19" s="1"/>
       <c r="CK19" s="1"/>
       <c r="CL19" s="1"/>
@@ -13783,203 +13777,203 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" x14ac:dyDescent="0.45">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="1:1024">
+      <c r="B20" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35" t="s">
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="36" t="s">
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="36" t="s">
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="39" t="s">
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="39"/>
-      <c r="BL20" s="39"/>
-      <c r="BM20" s="39"/>
-      <c r="BN20" s="39"/>
-      <c r="BO20" s="39"/>
-      <c r="BP20" s="39"/>
-      <c r="BQ20" s="39"/>
-      <c r="BR20" s="39"/>
-      <c r="BS20" s="39"/>
-      <c r="BT20" s="39"/>
-      <c r="BU20" s="39"/>
-      <c r="BV20" s="39"/>
-      <c r="BW20" s="39"/>
-      <c r="BX20" s="39"/>
-      <c r="BY20" s="39"/>
-      <c r="BZ20" s="39"/>
-      <c r="CA20" s="39"/>
-      <c r="CB20" s="39"/>
-      <c r="CC20" s="39"/>
-      <c r="CD20" s="39"/>
-      <c r="CE20" s="39"/>
-      <c r="CF20" s="39"/>
-      <c r="CG20" s="39"/>
-      <c r="CH20" s="39"/>
-      <c r="CI20" s="39"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="92"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="92"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="92"/>
+      <c r="BM20" s="92"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="92"/>
+      <c r="BP20" s="92"/>
+      <c r="BQ20" s="92"/>
+      <c r="BR20" s="92"/>
+      <c r="BS20" s="92"/>
+      <c r="BT20" s="92"/>
+      <c r="BU20" s="92"/>
+      <c r="BV20" s="92"/>
+      <c r="BW20" s="92"/>
+      <c r="BX20" s="92"/>
+      <c r="BY20" s="92"/>
+      <c r="BZ20" s="92"/>
+      <c r="CA20" s="92"/>
+      <c r="CB20" s="92"/>
+      <c r="CC20" s="92"/>
+      <c r="CD20" s="92"/>
+      <c r="CE20" s="92"/>
+      <c r="CF20" s="92"/>
+      <c r="CG20" s="92"/>
+      <c r="CH20" s="92"/>
+      <c r="CI20" s="92"/>
     </row>
-    <row r="21" spans="1:1024" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="30">
+    <row r="21" spans="1:1024" ht="19.5" thickBot="1">
+      <c r="B21" s="87">
         <v>2</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="54" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="54" t="s">
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="33"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="33"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="33"/>
-      <c r="BD21" s="33"/>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="33"/>
-      <c r="BG21" s="33"/>
-      <c r="BH21" s="33"/>
-      <c r="BI21" s="33"/>
-      <c r="BJ21" s="33"/>
-      <c r="BK21" s="33"/>
-      <c r="BL21" s="33"/>
-      <c r="BM21" s="33"/>
-      <c r="BN21" s="33"/>
-      <c r="BO21" s="33"/>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="33"/>
-      <c r="BR21" s="33"/>
-      <c r="BS21" s="33"/>
-      <c r="BT21" s="33"/>
-      <c r="BU21" s="33"/>
-      <c r="BV21" s="33"/>
-      <c r="BW21" s="33"/>
-      <c r="BX21" s="33"/>
-      <c r="BY21" s="33"/>
-      <c r="BZ21" s="33"/>
-      <c r="CA21" s="33"/>
-      <c r="CB21" s="33"/>
-      <c r="CC21" s="33"/>
-      <c r="CD21" s="33"/>
-      <c r="CE21" s="33"/>
-      <c r="CF21" s="33"/>
-      <c r="CG21" s="33"/>
-      <c r="CH21" s="33"/>
-      <c r="CI21" s="33"/>
+      <c r="AT21" s="89"/>
+      <c r="AU21" s="89"/>
+      <c r="AV21" s="89"/>
+      <c r="AW21" s="89"/>
+      <c r="AX21" s="89"/>
+      <c r="AY21" s="89"/>
+      <c r="AZ21" s="89"/>
+      <c r="BA21" s="89"/>
+      <c r="BB21" s="89"/>
+      <c r="BC21" s="89"/>
+      <c r="BD21" s="89"/>
+      <c r="BE21" s="89"/>
+      <c r="BF21" s="89"/>
+      <c r="BG21" s="89"/>
+      <c r="BH21" s="89"/>
+      <c r="BI21" s="89"/>
+      <c r="BJ21" s="89"/>
+      <c r="BK21" s="89"/>
+      <c r="BL21" s="89"/>
+      <c r="BM21" s="89"/>
+      <c r="BN21" s="89"/>
+      <c r="BO21" s="89"/>
+      <c r="BP21" s="89"/>
+      <c r="BQ21" s="89"/>
+      <c r="BR21" s="89"/>
+      <c r="BS21" s="89"/>
+      <c r="BT21" s="89"/>
+      <c r="BU21" s="89"/>
+      <c r="BV21" s="89"/>
+      <c r="BW21" s="89"/>
+      <c r="BX21" s="89"/>
+      <c r="BY21" s="89"/>
+      <c r="BZ21" s="89"/>
+      <c r="CA21" s="89"/>
+      <c r="CB21" s="89"/>
+      <c r="CC21" s="89"/>
+      <c r="CD21" s="89"/>
+      <c r="CE21" s="89"/>
+      <c r="CF21" s="89"/>
+      <c r="CG21" s="89"/>
+      <c r="CH21" s="89"/>
+      <c r="CI21" s="89"/>
     </row>
-    <row r="22" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1024">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -14067,7 +14061,7 @@
       <c r="CH22" s="8"/>
       <c r="CI22" s="9"/>
     </row>
-    <row r="23" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1024">
       <c r="B23" s="10"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -14077,8 +14071,8 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="12" t="s">
-        <v>42</v>
+      <c r="I23" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -14154,12 +14148,12 @@
       <c r="CC23" s="12"/>
       <c r="CD23" s="12"/>
       <c r="CE23" s="12"/>
-      <c r="CF23" s="60"/>
-      <c r="CG23" s="60"/>
-      <c r="CH23" s="60"/>
+      <c r="CF23" s="21"/>
+      <c r="CG23" s="21"/>
+      <c r="CH23" s="21"/>
       <c r="CI23" s="13"/>
     </row>
-    <row r="24" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1024">
       <c r="B24" s="10"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -14242,76 +14236,76 @@
       <c r="CC24" s="12"/>
       <c r="CD24" s="12"/>
       <c r="CE24" s="12"/>
-      <c r="CF24" s="60"/>
-      <c r="CG24" s="60"/>
-      <c r="CH24" s="60"/>
+      <c r="CF24" s="21"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" s="21"/>
       <c r="CI24" s="13"/>
     </row>
-    <row r="25" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1024">
       <c r="B25" s="10"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="27"/>
-      <c r="BD25" s="27"/>
-      <c r="BE25" s="27"/>
-      <c r="BF25" s="27"/>
-      <c r="BG25" s="27"/>
-      <c r="BH25" s="27"/>
-      <c r="BI25" s="27"/>
-      <c r="BJ25" s="27"/>
-      <c r="BK25" s="28"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="76"/>
+      <c r="BD25" s="76"/>
+      <c r="BE25" s="76"/>
+      <c r="BF25" s="76"/>
+      <c r="BG25" s="76"/>
+      <c r="BH25" s="76"/>
+      <c r="BI25" s="76"/>
+      <c r="BJ25" s="76"/>
+      <c r="BK25" s="77"/>
       <c r="BL25" s="12"/>
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
@@ -14332,76 +14326,76 @@
       <c r="CC25" s="12"/>
       <c r="CD25" s="12"/>
       <c r="CE25" s="12"/>
-      <c r="CF25" s="60"/>
-      <c r="CG25" s="60"/>
-      <c r="CH25" s="60"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
       <c r="CI25" s="13"/>
     </row>
-    <row r="26" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1024">
       <c r="B26" s="10"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="62"/>
-      <c r="BC26" s="62"/>
-      <c r="BD26" s="62"/>
-      <c r="BE26" s="62"/>
-      <c r="BF26" s="62"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="62"/>
-      <c r="BJ26" s="62"/>
-      <c r="BK26" s="63"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="79"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="79"/>
+      <c r="BF26" s="79"/>
+      <c r="BG26" s="79"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="79"/>
+      <c r="BJ26" s="79"/>
+      <c r="BK26" s="80"/>
       <c r="BL26" s="12"/>
       <c r="BM26" s="12"/>
       <c r="BN26" s="12"/>
@@ -14422,74 +14416,74 @@
       <c r="CC26" s="12"/>
       <c r="CD26" s="12"/>
       <c r="CE26" s="12"/>
-      <c r="CF26" s="60"/>
-      <c r="CG26" s="60"/>
-      <c r="CH26" s="60"/>
+      <c r="CF26" s="21"/>
+      <c r="CG26" s="21"/>
+      <c r="CH26" s="21"/>
       <c r="CI26" s="13"/>
     </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1024">
       <c r="B27" s="10"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="65"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="65"/>
-      <c r="AX27" s="65"/>
-      <c r="AY27" s="65"/>
-      <c r="AZ27" s="65"/>
-      <c r="BA27" s="65"/>
-      <c r="BB27" s="65"/>
-      <c r="BC27" s="65"/>
-      <c r="BD27" s="65"/>
-      <c r="BE27" s="65"/>
-      <c r="BF27" s="65"/>
-      <c r="BG27" s="65"/>
-      <c r="BH27" s="65"/>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="65"/>
-      <c r="BK27" s="66"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="82"/>
+      <c r="BH27" s="82"/>
+      <c r="BI27" s="82"/>
+      <c r="BJ27" s="82"/>
+      <c r="BK27" s="83"/>
       <c r="BL27" s="12"/>
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
@@ -14510,74 +14504,74 @@
       <c r="CC27" s="12"/>
       <c r="CD27" s="12"/>
       <c r="CE27" s="12"/>
-      <c r="CF27" s="60"/>
-      <c r="CG27" s="60"/>
-      <c r="CH27" s="60"/>
+      <c r="CF27" s="21"/>
+      <c r="CG27" s="21"/>
+      <c r="CH27" s="21"/>
       <c r="CI27" s="13"/>
     </row>
-    <row r="28" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1024">
       <c r="B28" s="10"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="68"/>
-      <c r="AL28" s="68"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="68"/>
-      <c r="AO28" s="68"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="68"/>
-      <c r="BG28" s="68"/>
-      <c r="BH28" s="68"/>
-      <c r="BI28" s="68"/>
-      <c r="BJ28" s="68"/>
-      <c r="BK28" s="69"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="85"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="85"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="85"/>
+      <c r="AN28" s="85"/>
+      <c r="AO28" s="85"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="85"/>
+      <c r="AR28" s="85"/>
+      <c r="AS28" s="85"/>
+      <c r="AT28" s="85"/>
+      <c r="AU28" s="85"/>
+      <c r="AV28" s="85"/>
+      <c r="AW28" s="85"/>
+      <c r="AX28" s="85"/>
+      <c r="AY28" s="85"/>
+      <c r="AZ28" s="85"/>
+      <c r="BA28" s="85"/>
+      <c r="BB28" s="85"/>
+      <c r="BC28" s="85"/>
+      <c r="BD28" s="85"/>
+      <c r="BE28" s="85"/>
+      <c r="BF28" s="85"/>
+      <c r="BG28" s="85"/>
+      <c r="BH28" s="85"/>
+      <c r="BI28" s="85"/>
+      <c r="BJ28" s="85"/>
+      <c r="BK28" s="86"/>
       <c r="BL28" s="12"/>
       <c r="BM28" s="12"/>
       <c r="BN28" s="12"/>
@@ -14598,74 +14592,74 @@
       <c r="CC28" s="12"/>
       <c r="CD28" s="12"/>
       <c r="CE28" s="12"/>
-      <c r="CF28" s="60"/>
-      <c r="CG28" s="60"/>
-      <c r="CH28" s="60"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="21"/>
       <c r="CI28" s="13"/>
     </row>
-    <row r="29" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1024">
       <c r="B29" s="10"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="70"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="70"/>
-      <c r="AN29" s="70"/>
-      <c r="AO29" s="70"/>
-      <c r="AP29" s="70"/>
-      <c r="AQ29" s="70"/>
-      <c r="AR29" s="70"/>
-      <c r="AS29" s="70"/>
-      <c r="AT29" s="70"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="70"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="70"/>
-      <c r="BA29" s="70"/>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="70"/>
-      <c r="BD29" s="70"/>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="70"/>
-      <c r="BJ29" s="70"/>
-      <c r="BK29" s="70"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
       <c r="BL29" s="12"/>
       <c r="BM29" s="12"/>
       <c r="BN29" s="12"/>
@@ -14686,12 +14680,12 @@
       <c r="CC29" s="12"/>
       <c r="CD29" s="12"/>
       <c r="CE29" s="12"/>
-      <c r="CF29" s="60"/>
-      <c r="CG29" s="60"/>
-      <c r="CH29" s="60"/>
+      <c r="CF29" s="21"/>
+      <c r="CG29" s="21"/>
+      <c r="CH29" s="21"/>
       <c r="CI29" s="13"/>
     </row>
-    <row r="30" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1024">
       <c r="B30" s="10"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -14702,7 +14696,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="1"/>
       <c r="I30" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -14778,12 +14772,12 @@
       <c r="CC30" s="12"/>
       <c r="CD30" s="12"/>
       <c r="CE30" s="12"/>
-      <c r="CF30" s="60"/>
-      <c r="CG30" s="60"/>
-      <c r="CH30" s="60"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21"/>
       <c r="CI30" s="13"/>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1024">
       <c r="B31" s="10"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -14866,12 +14860,12 @@
       <c r="CC31" s="12"/>
       <c r="CD31" s="12"/>
       <c r="CE31" s="12"/>
-      <c r="CF31" s="60"/>
-      <c r="CG31" s="60"/>
-      <c r="CH31" s="60"/>
+      <c r="CF31" s="21"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" s="21"/>
       <c r="CI31" s="13"/>
     </row>
-    <row r="32" spans="1:1024" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:1024" ht="18.75" thickBot="1">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -14959,982 +14953,929 @@
       <c r="CH32" s="17"/>
       <c r="CI32" s="18"/>
     </row>
-    <row r="33" spans="2:87" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="34" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B34" s="105" t="s">
+    <row r="33" spans="2:87" ht="18.75" thickBot="1"/>
+    <row r="34" spans="2:87">
+      <c r="B34" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="102" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="36" t="s">
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="36" t="s">
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="99" t="s">
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="70"/>
+      <c r="AM34" s="70"/>
+      <c r="AN34" s="70"/>
+      <c r="AO34" s="70"/>
+      <c r="AP34" s="70"/>
+      <c r="AQ34" s="70"/>
+      <c r="AR34" s="71"/>
+      <c r="AS34" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AT34" s="100"/>
-      <c r="AU34" s="100"/>
-      <c r="AV34" s="100"/>
-      <c r="AW34" s="100"/>
-      <c r="AX34" s="100"/>
-      <c r="AY34" s="100"/>
-      <c r="AZ34" s="100"/>
-      <c r="BA34" s="100"/>
-      <c r="BB34" s="100"/>
-      <c r="BC34" s="100"/>
-      <c r="BD34" s="100"/>
-      <c r="BE34" s="100"/>
-      <c r="BF34" s="100"/>
-      <c r="BG34" s="100"/>
-      <c r="BH34" s="100"/>
-      <c r="BI34" s="100"/>
-      <c r="BJ34" s="100"/>
-      <c r="BK34" s="100"/>
-      <c r="BL34" s="100"/>
-      <c r="BM34" s="100"/>
-      <c r="BN34" s="100"/>
-      <c r="BO34" s="100"/>
-      <c r="BP34" s="100"/>
-      <c r="BQ34" s="100"/>
-      <c r="BR34" s="100"/>
-      <c r="BS34" s="100"/>
-      <c r="BT34" s="100"/>
-      <c r="BU34" s="100"/>
-      <c r="BV34" s="100"/>
-      <c r="BW34" s="100"/>
-      <c r="BX34" s="100"/>
-      <c r="BY34" s="100"/>
-      <c r="BZ34" s="100"/>
-      <c r="CA34" s="100"/>
-      <c r="CB34" s="100"/>
-      <c r="CC34" s="100"/>
-      <c r="CD34" s="100"/>
-      <c r="CE34" s="100"/>
-      <c r="CF34" s="100"/>
-      <c r="CG34" s="100"/>
-      <c r="CH34" s="100"/>
-      <c r="CI34" s="101"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="64"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="64"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="64"/>
+      <c r="BO34" s="64"/>
+      <c r="BP34" s="64"/>
+      <c r="BQ34" s="64"/>
+      <c r="BR34" s="64"/>
+      <c r="BS34" s="64"/>
+      <c r="BT34" s="64"/>
+      <c r="BU34" s="64"/>
+      <c r="BV34" s="64"/>
+      <c r="BW34" s="64"/>
+      <c r="BX34" s="64"/>
+      <c r="BY34" s="64"/>
+      <c r="BZ34" s="64"/>
+      <c r="CA34" s="64"/>
+      <c r="CB34" s="64"/>
+      <c r="CC34" s="64"/>
+      <c r="CD34" s="64"/>
+      <c r="CE34" s="64"/>
+      <c r="CF34" s="64"/>
+      <c r="CG34" s="64"/>
+      <c r="CH34" s="64"/>
+      <c r="CI34" s="73"/>
     </row>
-    <row r="35" spans="2:87" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="73">
+    <row r="35" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B35" s="56">
         <v>3</v>
       </c>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="54" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="54" t="s">
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="54" t="s">
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="55"/>
-      <c r="AO35" s="55"/>
-      <c r="AP35" s="55"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="54" t="s">
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="AT35" s="55"/>
-      <c r="AU35" s="55"/>
-      <c r="AV35" s="55"/>
-      <c r="AW35" s="55"/>
-      <c r="AX35" s="55"/>
-      <c r="AY35" s="55"/>
-      <c r="AZ35" s="55"/>
-      <c r="BA35" s="55"/>
-      <c r="BB35" s="55"/>
-      <c r="BC35" s="55"/>
-      <c r="BD35" s="55"/>
-      <c r="BE35" s="55"/>
-      <c r="BF35" s="55"/>
-      <c r="BG35" s="55"/>
-      <c r="BH35" s="55"/>
-      <c r="BI35" s="55"/>
-      <c r="BJ35" s="55"/>
-      <c r="BK35" s="55"/>
-      <c r="BL35" s="55"/>
-      <c r="BM35" s="55"/>
-      <c r="BN35" s="55"/>
-      <c r="BO35" s="55"/>
-      <c r="BP35" s="55"/>
-      <c r="BQ35" s="55"/>
-      <c r="BR35" s="55"/>
-      <c r="BS35" s="55"/>
-      <c r="BT35" s="55"/>
-      <c r="BU35" s="55"/>
-      <c r="BV35" s="55"/>
-      <c r="BW35" s="55"/>
-      <c r="BX35" s="55"/>
-      <c r="BY35" s="55"/>
-      <c r="BZ35" s="55"/>
-      <c r="CA35" s="55"/>
-      <c r="CB35" s="55"/>
-      <c r="CC35" s="55"/>
-      <c r="CD35" s="55"/>
-      <c r="CE35" s="55"/>
-      <c r="CF35" s="55"/>
-      <c r="CG35" s="55"/>
-      <c r="CH35" s="55"/>
-      <c r="CI35" s="72"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="60"/>
+      <c r="BG35" s="60"/>
+      <c r="BH35" s="60"/>
+      <c r="BI35" s="60"/>
+      <c r="BJ35" s="60"/>
+      <c r="BK35" s="60"/>
+      <c r="BL35" s="60"/>
+      <c r="BM35" s="60"/>
+      <c r="BN35" s="60"/>
+      <c r="BO35" s="60"/>
+      <c r="BP35" s="60"/>
+      <c r="BQ35" s="60"/>
+      <c r="BR35" s="60"/>
+      <c r="BS35" s="60"/>
+      <c r="BT35" s="60"/>
+      <c r="BU35" s="60"/>
+      <c r="BV35" s="60"/>
+      <c r="BW35" s="60"/>
+      <c r="BX35" s="60"/>
+      <c r="BY35" s="60"/>
+      <c r="BZ35" s="60"/>
+      <c r="CA35" s="60"/>
+      <c r="CB35" s="60"/>
+      <c r="CC35" s="60"/>
+      <c r="CD35" s="60"/>
+      <c r="CE35" s="60"/>
+      <c r="CF35" s="60"/>
+      <c r="CG35" s="60"/>
+      <c r="CH35" s="60"/>
+      <c r="CI35" s="62"/>
     </row>
-    <row r="36" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="93"/>
-      <c r="AG36" s="93"/>
-      <c r="AH36" s="93"/>
-      <c r="AI36" s="93"/>
-      <c r="AJ36" s="93"/>
-      <c r="AK36" s="93"/>
-      <c r="AL36" s="93"/>
-      <c r="AM36" s="93"/>
-      <c r="AN36" s="93"/>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="93"/>
-      <c r="AQ36" s="93"/>
-      <c r="AR36" s="93"/>
-      <c r="AS36" s="93"/>
-      <c r="AT36" s="93"/>
-      <c r="AU36" s="93"/>
-      <c r="AV36" s="93"/>
-      <c r="AW36" s="93"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="93"/>
-      <c r="AZ36" s="93"/>
-      <c r="BA36" s="93"/>
-      <c r="BB36" s="93"/>
-      <c r="BC36" s="93"/>
-      <c r="BD36" s="93"/>
-      <c r="BE36" s="93"/>
-      <c r="BF36" s="93"/>
-      <c r="BG36" s="93"/>
-      <c r="BH36" s="93"/>
-      <c r="BI36" s="93"/>
-      <c r="BJ36" s="93"/>
-      <c r="BK36" s="93"/>
-      <c r="BL36" s="93"/>
-      <c r="BM36" s="93"/>
-      <c r="BN36" s="93"/>
-      <c r="BO36" s="93"/>
-      <c r="BP36" s="80"/>
-      <c r="BQ36" s="80"/>
-      <c r="BR36" s="80"/>
-      <c r="BS36" s="80"/>
-      <c r="BT36" s="80"/>
-      <c r="BU36" s="80"/>
-      <c r="BV36" s="80"/>
-      <c r="BW36" s="80"/>
-      <c r="BX36" s="80"/>
-      <c r="BY36" s="80"/>
-      <c r="BZ36" s="80"/>
-      <c r="CA36" s="80"/>
-      <c r="CB36" s="80"/>
-      <c r="CC36" s="80"/>
-      <c r="CD36" s="80"/>
-      <c r="CE36" s="80"/>
-      <c r="CF36" s="80"/>
-      <c r="CG36" s="80"/>
-      <c r="CH36" s="80"/>
-      <c r="CI36" s="81"/>
+    <row r="36" spans="2:87">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
+      <c r="BF36" s="42"/>
+      <c r="BG36" s="42"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="42"/>
+      <c r="BJ36" s="42"/>
+      <c r="BK36" s="42"/>
+      <c r="BL36" s="42"/>
+      <c r="BM36" s="42"/>
+      <c r="BN36" s="42"/>
+      <c r="BO36" s="42"/>
+      <c r="BP36" s="29"/>
+      <c r="BQ36" s="29"/>
+      <c r="BR36" s="29"/>
+      <c r="BS36" s="29"/>
+      <c r="BT36" s="29"/>
+      <c r="BU36" s="29"/>
+      <c r="BV36" s="29"/>
+      <c r="BW36" s="29"/>
+      <c r="BX36" s="29"/>
+      <c r="BY36" s="29"/>
+      <c r="BZ36" s="29"/>
+      <c r="CA36" s="29"/>
+      <c r="CB36" s="29"/>
+      <c r="CC36" s="29"/>
+      <c r="CD36" s="29"/>
+      <c r="CE36" s="29"/>
+      <c r="CF36" s="29"/>
+      <c r="CG36" s="29"/>
+      <c r="CH36" s="29"/>
+      <c r="CI36" s="30"/>
     </row>
-    <row r="37" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="84" t="s">
+    <row r="37" spans="2:87" ht="18" customHeight="1">
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="21" t="s">
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="21"/>
-      <c r="BJ37" s="21"/>
-      <c r="BK37" s="21"/>
-      <c r="BL37" s="21"/>
-      <c r="BM37" s="21"/>
-      <c r="BN37" s="21"/>
-      <c r="BO37" s="21"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="21"/>
-      <c r="BR37" s="21"/>
-      <c r="BS37" s="21"/>
-      <c r="BT37" s="21"/>
-      <c r="BU37" s="21"/>
-      <c r="BV37" s="21"/>
-      <c r="BW37" s="21"/>
-      <c r="BX37" s="21"/>
-      <c r="BY37" s="21"/>
-      <c r="BZ37" s="21"/>
-      <c r="CA37" s="21"/>
-      <c r="CB37" s="21"/>
-      <c r="CC37" s="21"/>
-      <c r="CD37" s="21"/>
-      <c r="CE37" s="21"/>
-      <c r="CF37" s="86"/>
-      <c r="CG37" s="86"/>
-      <c r="CH37" s="86"/>
-      <c r="CI37" s="87"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="46"/>
+      <c r="AZ37" s="46"/>
+      <c r="BA37" s="46"/>
+      <c r="BB37" s="46"/>
+      <c r="BC37" s="46"/>
+      <c r="BD37" s="46"/>
+      <c r="BE37" s="46"/>
+      <c r="BF37" s="46"/>
+      <c r="BG37" s="46"/>
+      <c r="BH37" s="46"/>
+      <c r="BI37" s="46"/>
+      <c r="BJ37" s="46"/>
+      <c r="BK37" s="46"/>
+      <c r="BL37" s="46"/>
+      <c r="BM37" s="46"/>
+      <c r="BN37" s="46"/>
+      <c r="BO37" s="46"/>
+      <c r="BP37" s="46"/>
+      <c r="BQ37" s="46"/>
+      <c r="BR37" s="46"/>
+      <c r="BS37" s="46"/>
+      <c r="BT37" s="46"/>
+      <c r="BU37" s="46"/>
+      <c r="BV37" s="46"/>
+      <c r="BW37" s="46"/>
+      <c r="BX37" s="46"/>
+      <c r="BY37" s="46"/>
+      <c r="BZ37" s="46"/>
+      <c r="CA37" s="46"/>
+      <c r="CB37" s="46"/>
+      <c r="CC37" s="46"/>
+      <c r="CD37" s="46"/>
+      <c r="CE37" s="46"/>
+      <c r="CF37" s="35"/>
+      <c r="CG37" s="35"/>
+      <c r="CH37" s="35"/>
+      <c r="CI37" s="36"/>
     </row>
-    <row r="38" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="85"/>
-      <c r="AB38" s="85"/>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="85"/>
-      <c r="AE38" s="85"/>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="94"/>
-      <c r="AH38" s="94"/>
-      <c r="AI38" s="94"/>
-      <c r="AJ38" s="94"/>
-      <c r="AK38" s="94"/>
-      <c r="AL38" s="94"/>
-      <c r="AM38" s="94"/>
-      <c r="AN38" s="94"/>
-      <c r="AO38" s="94"/>
-      <c r="AP38" s="94"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="94"/>
-      <c r="AS38" s="94"/>
-      <c r="AT38" s="94"/>
-      <c r="AU38" s="94"/>
-      <c r="AV38" s="94"/>
-      <c r="AW38" s="94"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
-      <c r="BF38" s="95"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="94"/>
-      <c r="BM38" s="94"/>
-      <c r="BN38" s="94"/>
-      <c r="BO38" s="94"/>
-      <c r="BP38" s="83"/>
-      <c r="BQ38" s="83"/>
-      <c r="BR38" s="83"/>
-      <c r="BS38" s="83"/>
-      <c r="BT38" s="83"/>
-      <c r="BU38" s="83"/>
-      <c r="BV38" s="83"/>
-      <c r="BW38" s="83"/>
-      <c r="BX38" s="83"/>
-      <c r="BY38" s="83"/>
-      <c r="BZ38" s="83"/>
-      <c r="CA38" s="83"/>
-      <c r="CB38" s="83"/>
-      <c r="CC38" s="83"/>
-      <c r="CD38" s="83"/>
-      <c r="CE38" s="83"/>
-      <c r="CF38" s="86"/>
-      <c r="CG38" s="86"/>
-      <c r="CH38" s="86"/>
-      <c r="CI38" s="87"/>
+    <row r="38" spans="2:87">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="43"/>
+      <c r="AW38" s="43"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="44"/>
+      <c r="BC38" s="44"/>
+      <c r="BD38" s="44"/>
+      <c r="BE38" s="44"/>
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="44"/>
+      <c r="BI38" s="44"/>
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="43"/>
+      <c r="BO38" s="43"/>
+      <c r="BP38" s="32"/>
+      <c r="BQ38" s="32"/>
+      <c r="BR38" s="32"/>
+      <c r="BS38" s="32"/>
+      <c r="BT38" s="32"/>
+      <c r="BU38" s="32"/>
+      <c r="BV38" s="32"/>
+      <c r="BW38" s="32"/>
+      <c r="BX38" s="32"/>
+      <c r="BY38" s="32"/>
+      <c r="BZ38" s="32"/>
+      <c r="CA38" s="32"/>
+      <c r="CB38" s="32"/>
+      <c r="CC38" s="32"/>
+      <c r="CD38" s="32"/>
+      <c r="CE38" s="32"/>
+      <c r="CF38" s="35"/>
+      <c r="CG38" s="35"/>
+      <c r="CH38" s="35"/>
+      <c r="CI38" s="36"/>
     </row>
-    <row r="39" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="22" t="s">
+    <row r="39" spans="2:87">
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="25" t="s">
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="22" t="s">
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="107"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="107"/>
-      <c r="AI39" s="107"/>
-      <c r="AJ39" s="107"/>
-      <c r="AK39" s="107"/>
-      <c r="AL39" s="107"/>
-      <c r="AM39" s="107"/>
-      <c r="AN39" s="107"/>
-      <c r="AO39" s="107"/>
-      <c r="AP39" s="107"/>
-      <c r="AQ39" s="107"/>
-      <c r="AR39" s="107"/>
-      <c r="AS39" s="107"/>
-      <c r="AT39" s="107"/>
-      <c r="AU39" s="107"/>
-      <c r="AV39" s="107"/>
-      <c r="AW39" s="107"/>
-      <c r="AX39" s="107"/>
-      <c r="AY39" s="107"/>
-      <c r="AZ39" s="107"/>
-      <c r="BA39" s="107"/>
-      <c r="BB39" s="107"/>
-      <c r="BC39" s="107"/>
-      <c r="BD39" s="107"/>
-      <c r="BE39" s="107"/>
-      <c r="BF39" s="107"/>
-      <c r="BG39" s="107"/>
-      <c r="BH39" s="107"/>
-      <c r="BI39" s="107"/>
-      <c r="BJ39" s="107"/>
-      <c r="BK39" s="108"/>
-      <c r="BL39" s="94"/>
-      <c r="BM39" s="94"/>
-      <c r="BN39" s="94"/>
-      <c r="BO39" s="94"/>
-      <c r="BP39" s="83"/>
-      <c r="BQ39" s="83"/>
-      <c r="BR39" s="83"/>
-      <c r="BS39" s="83"/>
-      <c r="BT39" s="83"/>
-      <c r="BU39" s="83"/>
-      <c r="BV39" s="83"/>
-      <c r="BW39" s="83"/>
-      <c r="BX39" s="83"/>
-      <c r="BY39" s="83"/>
-      <c r="BZ39" s="83"/>
-      <c r="CA39" s="83"/>
-      <c r="CB39" s="83"/>
-      <c r="CC39" s="83"/>
-      <c r="CD39" s="83"/>
-      <c r="CE39" s="83"/>
-      <c r="CF39" s="86"/>
-      <c r="CG39" s="86"/>
-      <c r="CH39" s="86"/>
-      <c r="CI39" s="87"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="48"/>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
+      <c r="AS39" s="48"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
+      <c r="AZ39" s="48"/>
+      <c r="BA39" s="48"/>
+      <c r="BB39" s="48"/>
+      <c r="BC39" s="48"/>
+      <c r="BD39" s="48"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="48"/>
+      <c r="BJ39" s="48"/>
+      <c r="BK39" s="49"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="43"/>
+      <c r="BN39" s="43"/>
+      <c r="BO39" s="43"/>
+      <c r="BP39" s="32"/>
+      <c r="BQ39" s="32"/>
+      <c r="BR39" s="32"/>
+      <c r="BS39" s="32"/>
+      <c r="BT39" s="32"/>
+      <c r="BU39" s="32"/>
+      <c r="BV39" s="32"/>
+      <c r="BW39" s="32"/>
+      <c r="BX39" s="32"/>
+      <c r="BY39" s="32"/>
+      <c r="BZ39" s="32"/>
+      <c r="CA39" s="32"/>
+      <c r="CB39" s="32"/>
+      <c r="CC39" s="32"/>
+      <c r="CD39" s="32"/>
+      <c r="CE39" s="32"/>
+      <c r="CF39" s="35"/>
+      <c r="CG39" s="35"/>
+      <c r="CH39" s="35"/>
+      <c r="CI39" s="36"/>
     </row>
-    <row r="40" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="29">
+    <row r="40" spans="2:87">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="53">
         <v>1</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="29" t="s">
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="29" t="s">
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
-      <c r="AW40" s="31"/>
-      <c r="AX40" s="31"/>
-      <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="31"/>
-      <c r="BC40" s="31"/>
-      <c r="BD40" s="31"/>
-      <c r="BE40" s="31"/>
-      <c r="BF40" s="31"/>
-      <c r="BG40" s="31"/>
-      <c r="BH40" s="31"/>
-      <c r="BI40" s="31"/>
-      <c r="BJ40" s="31"/>
-      <c r="BK40" s="32"/>
-      <c r="BL40" s="94"/>
-      <c r="BM40" s="94"/>
-      <c r="BN40" s="94"/>
-      <c r="BO40" s="94"/>
-      <c r="BP40" s="83"/>
-      <c r="BQ40" s="83"/>
-      <c r="BR40" s="83"/>
-      <c r="BS40" s="83"/>
-      <c r="BT40" s="83"/>
-      <c r="BU40" s="83"/>
-      <c r="BV40" s="83"/>
-      <c r="BW40" s="83"/>
-      <c r="BX40" s="83"/>
-      <c r="BY40" s="83"/>
-      <c r="BZ40" s="83"/>
-      <c r="CA40" s="83"/>
-      <c r="CB40" s="83"/>
-      <c r="CC40" s="83"/>
-      <c r="CD40" s="83"/>
-      <c r="CE40" s="83"/>
-      <c r="CF40" s="86"/>
-      <c r="CG40" s="86"/>
-      <c r="CH40" s="86"/>
-      <c r="CI40" s="87"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="54"/>
+      <c r="AI40" s="54"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="54"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="54"/>
+      <c r="AT40" s="54"/>
+      <c r="AU40" s="54"/>
+      <c r="AV40" s="54"/>
+      <c r="AW40" s="54"/>
+      <c r="AX40" s="54"/>
+      <c r="AY40" s="54"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="54"/>
+      <c r="BB40" s="54"/>
+      <c r="BC40" s="54"/>
+      <c r="BD40" s="54"/>
+      <c r="BE40" s="54"/>
+      <c r="BF40" s="54"/>
+      <c r="BG40" s="54"/>
+      <c r="BH40" s="54"/>
+      <c r="BI40" s="54"/>
+      <c r="BJ40" s="54"/>
+      <c r="BK40" s="55"/>
+      <c r="BL40" s="43"/>
+      <c r="BM40" s="43"/>
+      <c r="BN40" s="43"/>
+      <c r="BO40" s="43"/>
+      <c r="BP40" s="32"/>
+      <c r="BQ40" s="32"/>
+      <c r="BR40" s="32"/>
+      <c r="BS40" s="32"/>
+      <c r="BT40" s="32"/>
+      <c r="BU40" s="32"/>
+      <c r="BV40" s="32"/>
+      <c r="BW40" s="32"/>
+      <c r="BX40" s="32"/>
+      <c r="BY40" s="32"/>
+      <c r="BZ40" s="32"/>
+      <c r="CA40" s="32"/>
+      <c r="CB40" s="32"/>
+      <c r="CC40" s="32"/>
+      <c r="CD40" s="32"/>
+      <c r="CE40" s="32"/>
+      <c r="CF40" s="35"/>
+      <c r="CG40" s="35"/>
+      <c r="CH40" s="35"/>
+      <c r="CI40" s="36"/>
     </row>
-    <row r="41" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="85"/>
-      <c r="AC41" s="85"/>
-      <c r="AD41" s="85"/>
-      <c r="AE41" s="85"/>
-      <c r="AF41" s="94"/>
-      <c r="AG41" s="94"/>
-      <c r="AH41" s="94"/>
-      <c r="AI41" s="94"/>
-      <c r="AJ41" s="94"/>
-      <c r="AK41" s="94"/>
-      <c r="AL41" s="94"/>
-      <c r="AM41" s="94"/>
-      <c r="AN41" s="94"/>
-      <c r="AO41" s="94"/>
-      <c r="AP41" s="94"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="94"/>
-      <c r="AS41" s="94"/>
-      <c r="AT41" s="94"/>
-      <c r="AU41" s="94"/>
-      <c r="AV41" s="94"/>
-      <c r="AW41" s="94"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
-      <c r="BF41" s="95"/>
-      <c r="BG41" s="95"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="94"/>
-      <c r="BM41" s="94"/>
-      <c r="BN41" s="94"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="83"/>
-      <c r="BQ41" s="83"/>
-      <c r="BR41" s="83"/>
-      <c r="BS41" s="83"/>
-      <c r="BT41" s="83"/>
-      <c r="BU41" s="83"/>
-      <c r="BV41" s="83"/>
-      <c r="BW41" s="83"/>
-      <c r="BX41" s="83"/>
-      <c r="BY41" s="83"/>
-      <c r="BZ41" s="83"/>
-      <c r="CA41" s="83"/>
-      <c r="CB41" s="83"/>
-      <c r="CC41" s="83"/>
-      <c r="CD41" s="83"/>
-      <c r="CE41" s="83"/>
-      <c r="CF41" s="86"/>
-      <c r="CG41" s="86"/>
-      <c r="CH41" s="86"/>
-      <c r="CI41" s="87"/>
+    <row r="41" spans="2:87">
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43"/>
+      <c r="AT41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="43"/>
+      <c r="AW41" s="43"/>
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BA41" s="44"/>
+      <c r="BB41" s="44"/>
+      <c r="BC41" s="44"/>
+      <c r="BD41" s="44"/>
+      <c r="BE41" s="44"/>
+      <c r="BF41" s="44"/>
+      <c r="BG41" s="44"/>
+      <c r="BH41" s="44"/>
+      <c r="BI41" s="44"/>
+      <c r="BJ41" s="44"/>
+      <c r="BK41" s="44"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="43"/>
+      <c r="BN41" s="43"/>
+      <c r="BO41" s="43"/>
+      <c r="BP41" s="32"/>
+      <c r="BQ41" s="32"/>
+      <c r="BR41" s="32"/>
+      <c r="BS41" s="32"/>
+      <c r="BT41" s="32"/>
+      <c r="BU41" s="32"/>
+      <c r="BV41" s="32"/>
+      <c r="BW41" s="32"/>
+      <c r="BX41" s="32"/>
+      <c r="BY41" s="32"/>
+      <c r="BZ41" s="32"/>
+      <c r="CA41" s="32"/>
+      <c r="CB41" s="32"/>
+      <c r="CC41" s="32"/>
+      <c r="CD41" s="32"/>
+      <c r="CE41" s="32"/>
+      <c r="CF41" s="35"/>
+      <c r="CG41" s="35"/>
+      <c r="CH41" s="35"/>
+      <c r="CI41" s="36"/>
     </row>
-    <row r="42" spans="2:87" x14ac:dyDescent="0.45">
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="84" t="s">
+    <row r="42" spans="2:87">
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="85" t="s">
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="85"/>
-      <c r="AC42" s="85"/>
-      <c r="AD42" s="85"/>
-      <c r="AE42" s="85"/>
-      <c r="AF42" s="77"/>
-      <c r="AG42" s="77"/>
-      <c r="AH42" s="77"/>
-      <c r="AI42" s="77"/>
-      <c r="AJ42" s="77"/>
-      <c r="AK42" s="77"/>
-      <c r="AL42" s="77"/>
-      <c r="AM42" s="78"/>
-      <c r="AN42" s="78"/>
-      <c r="AO42" s="78"/>
-      <c r="AP42" s="78"/>
-      <c r="AQ42" s="78"/>
-      <c r="AR42" s="78"/>
-      <c r="AS42" s="78"/>
-      <c r="AT42" s="78"/>
-      <c r="AU42" s="78"/>
-      <c r="AV42" s="78"/>
-      <c r="AW42" s="78"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="94"/>
-      <c r="BM42" s="94"/>
-      <c r="BN42" s="94"/>
-      <c r="BO42" s="94"/>
-      <c r="BP42" s="83"/>
-      <c r="BQ42" s="83"/>
-      <c r="BR42" s="83"/>
-      <c r="BS42" s="83"/>
-      <c r="BT42" s="83"/>
-      <c r="BU42" s="83"/>
-      <c r="BV42" s="83"/>
-      <c r="BW42" s="83"/>
-      <c r="BX42" s="83"/>
-      <c r="BY42" s="83"/>
-      <c r="BZ42" s="83"/>
-      <c r="CA42" s="83"/>
-      <c r="CB42" s="83"/>
-      <c r="CC42" s="83"/>
-      <c r="CD42" s="83"/>
-      <c r="CE42" s="83"/>
-      <c r="CF42" s="86"/>
-      <c r="CG42" s="86"/>
-      <c r="CH42" s="86"/>
-      <c r="CI42" s="87"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="27"/>
+      <c r="AO42" s="27"/>
+      <c r="AP42" s="27"/>
+      <c r="AQ42" s="27"/>
+      <c r="AR42" s="27"/>
+      <c r="AS42" s="27"/>
+      <c r="AT42" s="27"/>
+      <c r="AU42" s="27"/>
+      <c r="AV42" s="27"/>
+      <c r="AW42" s="27"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="43"/>
+      <c r="BM42" s="43"/>
+      <c r="BN42" s="43"/>
+      <c r="BO42" s="43"/>
+      <c r="BP42" s="32"/>
+      <c r="BQ42" s="32"/>
+      <c r="BR42" s="32"/>
+      <c r="BS42" s="32"/>
+      <c r="BT42" s="32"/>
+      <c r="BU42" s="32"/>
+      <c r="BV42" s="32"/>
+      <c r="BW42" s="32"/>
+      <c r="BX42" s="32"/>
+      <c r="BY42" s="32"/>
+      <c r="BZ42" s="32"/>
+      <c r="CA42" s="32"/>
+      <c r="CB42" s="32"/>
+      <c r="CC42" s="32"/>
+      <c r="CD42" s="32"/>
+      <c r="CE42" s="32"/>
+      <c r="CF42" s="35"/>
+      <c r="CG42" s="35"/>
+      <c r="CH42" s="35"/>
+      <c r="CI42" s="36"/>
     </row>
-    <row r="43" spans="2:87" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="89"/>
-      <c r="W43" s="89"/>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="89"/>
-      <c r="AA43" s="89"/>
-      <c r="AB43" s="89"/>
-      <c r="AC43" s="89"/>
-      <c r="AD43" s="89"/>
-      <c r="AE43" s="89"/>
-      <c r="AF43" s="89"/>
-      <c r="AG43" s="89"/>
-      <c r="AH43" s="89"/>
-      <c r="AI43" s="89"/>
-      <c r="AJ43" s="89"/>
-      <c r="AK43" s="89"/>
-      <c r="AL43" s="89"/>
-      <c r="AM43" s="89"/>
-      <c r="AN43" s="89"/>
-      <c r="AO43" s="89"/>
-      <c r="AP43" s="89"/>
-      <c r="AQ43" s="89"/>
-      <c r="AR43" s="89"/>
-      <c r="AS43" s="89"/>
-      <c r="AT43" s="89"/>
-      <c r="AU43" s="89"/>
-      <c r="AV43" s="89"/>
-      <c r="AW43" s="89"/>
-      <c r="AX43" s="89"/>
-      <c r="AY43" s="89"/>
-      <c r="AZ43" s="89"/>
-      <c r="BA43" s="89"/>
-      <c r="BB43" s="89"/>
-      <c r="BC43" s="89"/>
-      <c r="BD43" s="89"/>
-      <c r="BE43" s="89"/>
-      <c r="BF43" s="89"/>
-      <c r="BG43" s="89"/>
-      <c r="BH43" s="89"/>
-      <c r="BI43" s="89"/>
-      <c r="BJ43" s="89"/>
-      <c r="BK43" s="89"/>
-      <c r="BL43" s="89"/>
-      <c r="BM43" s="89"/>
-      <c r="BN43" s="89"/>
-      <c r="BO43" s="89"/>
-      <c r="BP43" s="89"/>
-      <c r="BQ43" s="89"/>
-      <c r="BR43" s="91"/>
-      <c r="BS43" s="91"/>
-      <c r="BT43" s="91"/>
-      <c r="BU43" s="91"/>
-      <c r="BV43" s="91"/>
-      <c r="BW43" s="91"/>
-      <c r="BX43" s="91"/>
-      <c r="BY43" s="91"/>
-      <c r="BZ43" s="91"/>
-      <c r="CA43" s="91"/>
-      <c r="CB43" s="91"/>
-      <c r="CC43" s="91"/>
-      <c r="CD43" s="91"/>
-      <c r="CE43" s="91"/>
-      <c r="CF43" s="91"/>
-      <c r="CG43" s="91"/>
-      <c r="CH43" s="91"/>
-      <c r="CI43" s="92"/>
+    <row r="43" spans="2:87" ht="18.75" thickBot="1">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="38"/>
+      <c r="BJ43" s="38"/>
+      <c r="BK43" s="38"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="38"/>
+      <c r="BP43" s="38"/>
+      <c r="BQ43" s="38"/>
+      <c r="BR43" s="40"/>
+      <c r="BS43" s="40"/>
+      <c r="BT43" s="40"/>
+      <c r="BU43" s="40"/>
+      <c r="BV43" s="40"/>
+      <c r="BW43" s="40"/>
+      <c r="BX43" s="40"/>
+      <c r="BY43" s="40"/>
+      <c r="BZ43" s="40"/>
+      <c r="CA43" s="40"/>
+      <c r="CB43" s="40"/>
+      <c r="CC43" s="40"/>
+      <c r="CD43" s="40"/>
+      <c r="CE43" s="40"/>
+      <c r="CF43" s="40"/>
+      <c r="CG43" s="40"/>
+      <c r="CH43" s="40"/>
+      <c r="CI43" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="I37:CE37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:X39"/>
-    <mergeCell ref="Y39:BK39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:X40"/>
-    <mergeCell ref="Y40:BK40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:X35"/>
-    <mergeCell ref="Y35:AH35"/>
-    <mergeCell ref="AI35:AR35"/>
-    <mergeCell ref="AS35:CI35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:X34"/>
-    <mergeCell ref="Y34:AH34"/>
-    <mergeCell ref="AI34:AR34"/>
-    <mergeCell ref="AS34:CI34"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="Y12:BK12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y13:BK13"/>
-    <mergeCell ref="G25:BK25"/>
-    <mergeCell ref="G26:BK28"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AH21"/>
-    <mergeCell ref="AI21:AR21"/>
-    <mergeCell ref="AS21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AH20"/>
-    <mergeCell ref="AI20:AR20"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="AS7:CI7"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -15949,6 +15890,59 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AH20"/>
+    <mergeCell ref="AI20:AR20"/>
+    <mergeCell ref="AS20:CI20"/>
+    <mergeCell ref="G25:BK25"/>
+    <mergeCell ref="G26:BK28"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AH21"/>
+    <mergeCell ref="AI21:AR21"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="Y12:BK12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y13:BK13"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:X34"/>
+    <mergeCell ref="Y34:AH34"/>
+    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="AS34:CI34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:X35"/>
+    <mergeCell ref="Y35:AH35"/>
+    <mergeCell ref="AI35:AR35"/>
+    <mergeCell ref="AS35:CI35"/>
+    <mergeCell ref="I37:CE37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:X39"/>
+    <mergeCell ref="Y39:BK39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:X40"/>
+    <mergeCell ref="Y40:BK40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
